--- a/PCB_design_3_first_attempt/circuit_PCB_design_3_bom.xlsx
+++ b/PCB_design_3_first_attempt/circuit_PCB_design_3_bom.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="4" documentId="8_{6F7F70D3-FA28-4A14-A022-390C2FA988AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{283BD20A-0558-4E31-850D-7F483BDCC1CF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{6B457867-E4B3-4B56-8B6C-E64CF87D78AD}"/>
+    <workbookView xWindow="4155" yWindow="4080" windowWidth="21600" windowHeight="11295" xr2:uid="{6B457867-E4B3-4B56-8B6C-E64CF87D78AD}"/>
   </bookViews>
   <sheets>
     <sheet name="circuit_PCB_design_3_bom" sheetId="1" r:id="rId1"/>
@@ -464,6 +464,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -766,28 +770,28 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="59.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="5" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.5546875" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="59.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" customWidth="1"/>
-    <col min="10" max="10" width="26.44140625" customWidth="1"/>
-    <col min="11" max="11" width="23.109375" customWidth="1"/>
-    <col min="12" max="12" width="12.21875" customWidth="1"/>
-    <col min="13" max="13" width="22.33203125" customWidth="1"/>
-    <col min="14" max="14" width="20.109375" customWidth="1"/>
-    <col min="15" max="15" width="19.33203125" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="26.42578125" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1"/>
+    <col min="13" max="13" width="22.28515625" customWidth="1"/>
+    <col min="14" max="14" width="20.140625" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -834,7 +838,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -879,7 +883,7 @@
         <v>0.64712999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -926,7 +930,7 @@
         <v>6.8100000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -973,7 +977,7 @@
         <v>4.7299999999999998E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1012,7 +1016,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1059,7 +1063,7 @@
         <v>2.997E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -1106,7 +1110,7 @@
         <v>5.52</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -1153,7 +1157,7 @@
         <v>2.725E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1192,7 +1196,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -1239,7 +1243,7 @@
         <v>8.5830000000000004E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -1284,7 +1288,7 @@
         <v>28.88</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -1331,7 +1335,7 @@
         <v>580.37</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1378,7 +1382,7 @@
         <v>0.27246999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -1423,7 +1427,7 @@
         <v>0.13624</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -1470,7 +1474,7 @@
         <v>0.53132000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1517,7 +1521,7 @@
         <v>5.49</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
